--- a/Consolidated Factory Workplan1.xlsx
+++ b/Consolidated Factory Workplan1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yusuf\Documents\My Project\Factory Work Plan\ExcelExtractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A122456-4A0C-4848-831F-9396BFF3818B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342357B8-91C0-4038-9728-6D6A530FD1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="8130" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="8130" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Workplans" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
   <si>
     <t>Factory/Site</t>
   </si>
@@ -94,6 +94,9 @@
     <t>APCC</t>
   </si>
   <si>
+    <t>22-Feb</t>
+  </si>
+  <si>
     <t>Desktop</t>
   </si>
   <si>
@@ -121,26 +124,50 @@
     <t>ICC</t>
   </si>
   <si>
-    <t>Line 1</t>
-  </si>
-  <si>
-    <t>Line 2</t>
-  </si>
-  <si>
-    <t>Line 3</t>
+    <t>Line 1 Frontend</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>14:45</t>
+  </si>
+  <si>
+    <t>23:45</t>
+  </si>
+  <si>
+    <t>Line 2 Frontend</t>
+  </si>
+  <si>
+    <t>Line 3 Frontend</t>
+  </si>
+  <si>
+    <t>Line 1 Backend</t>
+  </si>
+  <si>
+    <t>Line 2 Backend</t>
+  </si>
+  <si>
+    <t>Line 3 Backend</t>
   </si>
   <si>
     <t>EMFP</t>
   </si>
   <si>
     <t>BRH1</t>
+  </si>
+  <si>
+    <t>Consolidated Workplan</t>
+  </si>
+  <si>
+    <t>Updated on :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +179,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -246,28 +281,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -275,6 +309,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B7:K63"/>
+  <dimension ref="B3:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,58 +630,89 @@
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="8">
@@ -649,19 +721,19 @@
       <c r="D9" s="8">
         <v>0.875</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>350</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="J9" s="5" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="8">
@@ -670,13 +742,13 @@
       <c r="D10" s="8">
         <v>0.875</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="8">
@@ -685,7 +757,7 @@
       <c r="D11" s="8">
         <v>0.875</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>50</v>
       </c>
       <c r="F11" s="9">
@@ -694,12 +766,12 @@
       <c r="G11" s="9">
         <v>0.25</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="8">
@@ -708,17 +780,17 @@
       <c r="D12" s="8">
         <v>0.875</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="9">
         <v>0.875</v>
       </c>
       <c r="G12" s="9">
         <v>0.25</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="8">
@@ -727,17 +799,17 @@
       <c r="D13" s="8">
         <v>0.875</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="9">
         <v>0.875</v>
       </c>
       <c r="G13" s="9">
         <v>0.25</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="8">
@@ -746,13 +818,13 @@
       <c r="D14" s="8">
         <v>0.875</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="8">
@@ -761,53 +833,53 @@
       <c r="D15" s="8">
         <v>0.875</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="8">
@@ -816,7 +888,7 @@
       <c r="D18" s="8">
         <v>0.875</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>750</v>
       </c>
       <c r="F18" s="9">
@@ -825,12 +897,12 @@
       <c r="G18" s="9">
         <v>0.25</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <v>700</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="8">
@@ -839,17 +911,17 @@
       <c r="D19" s="8">
         <v>0.875</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="9">
         <v>0.875</v>
       </c>
       <c r="G19" s="9">
         <v>0.25</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="8">
@@ -858,7 +930,7 @@
       <c r="D20" s="8">
         <v>0.875</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>120</v>
       </c>
       <c r="F20" s="9">
@@ -867,12 +939,12 @@
       <c r="G20" s="9">
         <v>0.25</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="8">
@@ -881,30 +953,30 @@
       <c r="D21" s="8">
         <v>0.875</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="9">
         <v>0.875</v>
       </c>
       <c r="G21" s="9">
         <v>0.25</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="9">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="8">
@@ -913,539 +985,562 @@
       <c r="D23" s="8">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="11"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="11"/>
+      <c r="H32" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="6"/>
+      <c r="G34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="G36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="6"/>
+      <c r="G37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="12" t="s">
-        <v>32</v>
+      <c r="D40" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="E40" s="13"/>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G40" s="13"/>
-      <c r="H40" s="11"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="D44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="B45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="B46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="B47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="12" t="s">
-        <v>36</v>
+      <c r="D49" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="E49" s="13"/>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G49" s="13"/>
-      <c r="H49" s="11"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="13"/>
-      <c r="D57" s="12" t="s">
-        <v>37</v>
+      <c r="D57" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="E57" s="13"/>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="18" t="s">
         <v>2</v>
       </c>
       <c r="G57" s="13"/>
-      <c r="H57" s="11"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
+  <mergeCells count="32">
+    <mergeCell ref="B3:H4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="F57:G57"/>
@@ -1455,7 +1550,28 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Consolidated Factory Workplan1.xlsx
+++ b/Consolidated Factory Workplan1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yusuf\Documents\My Project\Factory Work Plan\ExcelExtractor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yusuf_Budiawan\Documents\Factory-Work-Plan-Consolidate\Factory-Work-Plan-Consolidate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342357B8-91C0-4038-9728-6D6A530FD1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CC92C3-0ABF-4C5F-B06F-8B99E38A1288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="8130" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Workplans" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="53">
+  <si>
+    <t>Consolidated Factory Workplan</t>
+  </si>
+  <si>
+    <t>Updated on :</t>
+  </si>
   <si>
     <t>Factory/Site</t>
   </si>
   <si>
-    <t>CCC4</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -91,6 +94,24 @@
     <t>CCC6</t>
   </si>
   <si>
+    <t>Line 1</t>
+  </si>
+  <si>
+    <t>Line 2</t>
+  </si>
+  <si>
+    <t>Line 3</t>
+  </si>
+  <si>
+    <t>Line 4</t>
+  </si>
+  <si>
+    <t>Line 5</t>
+  </si>
+  <si>
+    <t>Line 6</t>
+  </si>
+  <si>
     <t>APCC</t>
   </si>
   <si>
@@ -157,16 +178,16 @@
     <t>BRH1</t>
   </si>
   <si>
-    <t>Consolidated Workplan</t>
-  </si>
-  <si>
-    <t>Updated on :</t>
+    <t>CCC4-(timezone)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,10 +204,7 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -281,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -296,26 +314,35 @@
     <xf numFmtId="21" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,99 +648,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.90625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="18" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="18" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="25">
+        <v>44658.435655465961</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="10" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="8">
         <v>0.51388888888888884</v>
@@ -721,20 +750,20 @@
       <c r="D9" s="8">
         <v>0.875</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="19">
         <v>350</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="J9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="8">
         <v>0.51388888888888884</v>
@@ -742,14 +771,14 @@
       <c r="D10" s="8">
         <v>0.875</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="8">
         <v>0.51388888888888884</v>
@@ -757,7 +786,7 @@
       <c r="D11" s="8">
         <v>0.875</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="19">
         <v>50</v>
       </c>
       <c r="F11" s="9">
@@ -766,13 +795,13 @@
       <c r="G11" s="9">
         <v>0.25</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="17">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="8">
         <v>0.51388888888888884</v>
@@ -780,18 +809,18 @@
       <c r="D12" s="8">
         <v>0.875</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="9">
         <v>0.875</v>
       </c>
       <c r="G12" s="9">
         <v>0.25</v>
       </c>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8">
         <v>0.51388888888888884</v>
@@ -799,18 +828,18 @@
       <c r="D13" s="8">
         <v>0.875</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="9">
         <v>0.875</v>
       </c>
       <c r="G13" s="9">
         <v>0.25</v>
       </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8">
         <v>0.51388888888888884</v>
@@ -823,9 +852,9 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8">
         <v>0.35416666666666669</v>
@@ -838,49 +867,49 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="18" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="10" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="16"/>
+      <c r="H16" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="8">
         <v>0.51388888888888884</v>
@@ -888,7 +917,7 @@
       <c r="D18" s="8">
         <v>0.875</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="19">
         <v>750</v>
       </c>
       <c r="F18" s="9">
@@ -897,13 +926,13 @@
       <c r="G18" s="9">
         <v>0.25</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="17">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="8">
         <v>0.51388888888888884</v>
@@ -911,18 +940,18 @@
       <c r="D19" s="8">
         <v>0.875</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="9">
         <v>0.875</v>
       </c>
       <c r="G19" s="9">
         <v>0.25</v>
       </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8">
         <v>0.51388888888888884</v>
@@ -930,7 +959,7 @@
       <c r="D20" s="8">
         <v>0.875</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="19">
         <v>120</v>
       </c>
       <c r="F20" s="9">
@@ -939,13 +968,13 @@
       <c r="G20" s="9">
         <v>0.25</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="8">
         <v>0.51388888888888884</v>
@@ -953,21 +982,21 @@
       <c r="D21" s="8">
         <v>0.875</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="9">
         <v>0.875</v>
       </c>
       <c r="G21" s="9">
         <v>0.25</v>
       </c>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="5"/>
       <c r="F22" s="7"/>
       <c r="G22" s="9">
@@ -975,9 +1004,9 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="8">
         <v>0.35416666666666669</v>
@@ -990,215 +1019,253 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="18" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="16"/>
+      <c r="D24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="14">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="G25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="H25" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0.875</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0.875</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0.875</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0.875</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0.875</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0.875</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="18" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="16"/>
+      <c r="D32" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="G33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="H33" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1207,7 +1274,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1216,134 +1283,136 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="18" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="16"/>
+      <c r="D40" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="14">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="G41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="H41" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -1352,7 +1421,7 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="6"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -1361,45 +1430,45 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="18" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="16"/>
+      <c r="D49" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="G50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="H50" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -1408,7 +1477,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -1417,7 +1486,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -1426,7 +1495,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="6"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -1435,7 +1504,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B55" s="6"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -1444,7 +1513,7 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -1453,45 +1522,45 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="18" t="s">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="16"/>
+      <c r="D57" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B58" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="G58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="H58" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -1500,7 +1569,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" s="6"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -1509,7 +1578,7 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B61" s="6"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -1518,7 +1587,7 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="6"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -1527,7 +1596,7 @@
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -1538,40 +1607,43 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="B3:H4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;7 &amp;K737373#Internal Use - Confidential_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K737373Internal Use - Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Consolidated Factory Workplan1.xlsx
+++ b/Consolidated Factory Workplan1.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yusuf_Budiawan\Documents\Factory-Work-Plan-Consolidate\Factory-Work-Plan-Consolidate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4A345C-B1F1-4989-BBCF-C18F62751E7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F36CDB-6F5E-45B2-A1F2-D39C56248BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="2700" windowWidth="9600" windowHeight="4910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Workplans" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
-  <si>
-    <t>Consolidated Factory Sambal</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="68">
+  <si>
+    <t>Consolidated Factory Workplan</t>
   </si>
   <si>
     <t>Updated on :</t>
   </si>
   <si>
-    <t>18-04-2022 18:09:30</t>
+    <t>12-05-2022 10:09:25</t>
   </si>
   <si>
     <t>+0800</t>
@@ -43,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Mar.10</t>
+    <t>Apr.20</t>
   </si>
   <si>
     <t>Legend</t>
@@ -76,13 +87,13 @@
     <t>Third shift</t>
   </si>
   <si>
-    <t>SV Kitting&amp;Cell K6</t>
-  </si>
-  <si>
-    <t>SV Kitting&amp;Cell K7</t>
-  </si>
-  <si>
-    <t>SV Backend</t>
+    <t>A Shift SV Kitting&amp;Cell K6</t>
+  </si>
+  <si>
+    <t>A Shift SV Kitting&amp;Cell K7</t>
+  </si>
+  <si>
+    <t>A Shift SV Backend</t>
   </si>
   <si>
     <t>Storage line</t>
@@ -94,10 +105,19 @@
     <t>CCC2 (CST)</t>
   </si>
   <si>
-    <t>SV Kitting&amp;Cell</t>
-  </si>
-  <si>
-    <t>K8 line</t>
+    <t>May-06</t>
+  </si>
+  <si>
+    <t>A Shift DT Kitting&amp;Cell</t>
+  </si>
+  <si>
+    <t>A Shift DT Backend</t>
+  </si>
+  <si>
+    <t>A Shift SV Kitting &amp; Cell</t>
+  </si>
+  <si>
+    <t>A Shift  SV Backend</t>
   </si>
   <si>
     <t>ARB</t>
@@ -106,7 +126,7 @@
     <t>CCC6 (CST)</t>
   </si>
   <si>
-    <t>18-Apr</t>
+    <t>12-May</t>
   </si>
   <si>
     <t>Line 1-10</t>
@@ -157,6 +177,15 @@
     <t>Line 1 Frontend</t>
   </si>
   <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>14:45</t>
+  </si>
+  <si>
+    <t>23:45</t>
+  </si>
+  <si>
     <t>Line 2 Frontend</t>
   </si>
   <si>
@@ -175,20 +204,47 @@
     <t>EMFP (CET)</t>
   </si>
   <si>
+    <t>EMFP</t>
+  </si>
+  <si>
+    <t>6:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
     <t>BRH1 (BRT)</t>
   </si>
   <si>
     <t>Notebook</t>
   </si>
   <si>
+    <t>8:30:00</t>
+  </si>
+  <si>
     <t>AIO</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +261,12 @@
       <b/>
       <sz val="18"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -240,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -311,31 +373,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,18 +445,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,81 +764,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:N63"/>
+  <dimension ref="B3:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C3" s="14" t="s">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="C5" s="16" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="I5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="20" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="M7" s="24" t="s">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="P7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="Q7" s="25"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -744,200 +853,240 @@
       <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>0.51388888888888884</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>0.875</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="27">
         <v>350</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="M9" s="1" t="s">
+      <c r="F9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="P9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>0.51388888888888884</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>0.875</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="M10" s="1" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="P10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="E11" s="27">
+        <v>60</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I11" s="18">
+        <v>50</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8">
         <v>0.51388888888888884</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D15" s="8">
         <v>0.875</v>
       </c>
-      <c r="E11" s="23">
-        <v>50</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.875</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="H11" s="17">
-        <v>50</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.51388888888888884</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.875</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="11">
-        <v>0.875</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.51388888888888884</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.875</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="11">
-        <v>0.875</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.51388888888888884</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.875</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.875</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="20" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="25"/>
+      <c r="F16" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="21"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
@@ -972,154 +1121,150 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="B18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="8">
         <v>0.51388888888888884</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>0.875</v>
       </c>
-      <c r="E18" s="23">
-        <v>750</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="E18" s="32">
+        <v>600</v>
+      </c>
+      <c r="F18" s="13">
         <v>0.875</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="13">
         <v>0.25</v>
       </c>
-      <c r="H18" s="17">
-        <v>700</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="H18" s="31">
+        <v>600</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8">
         <v>0.51388888888888884</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>0.875</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="11">
+      <c r="E19" s="28"/>
+      <c r="F19" s="13">
         <v>0.875</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="13">
         <v>0.25</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8">
         <v>0.51388888888888884</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>0.875</v>
       </c>
-      <c r="E20" s="23">
-        <v>120</v>
-      </c>
-      <c r="F20" s="11">
+      <c r="E20" s="32">
+        <v>100</v>
+      </c>
+      <c r="F20" s="13">
         <v>0.875</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="13">
         <v>0.25</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="31">
         <v>100</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="8">
         <v>0.51388888888888884</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>0.875</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="11">
+      <c r="E21" s="28"/>
+      <c r="F21" s="13">
         <v>0.875</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="13">
         <v>0.25</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="11">
+      <c r="B22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="8">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="D22" s="8">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="20" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="21"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
@@ -1154,104 +1299,104 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="C26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="20" t="s">
+      <c r="C32" s="25"/>
+      <c r="D32" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" s="21"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="25"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
@@ -1286,134 +1431,136 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="D34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="8" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B36" s="7" t="s">
+      <c r="D36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B37" s="7" t="s">
+      <c r="D37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="20" t="s">
+      <c r="C40" s="25"/>
+      <c r="D40" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="25"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
@@ -1448,106 +1595,140 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B42" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="B42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B43" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="B43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B44" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="B44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
+      <c r="B45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B46" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
+      <c r="B46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B47" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
+      <c r="B47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="20" t="s">
+      <c r="C48" s="25"/>
+      <c r="D48" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="21"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="25"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
@@ -1582,94 +1763,106 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B50" s="7"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
+      <c r="B50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="21"/>
-      <c r="F56" s="20" t="s">
+      <c r="C56" s="25"/>
+      <c r="D56" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="21"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="25"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B57" s="2" t="s">
@@ -1704,93 +1897,147 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B58" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6">
-        <v>7.23</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
+      <c r="B58" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="10">
+        <f>C58 + TIME(7.23,0,0)</f>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E58" s="16">
+        <v>446</v>
+      </c>
+      <c r="F58" s="11">
+        <f>C58 + TIME(7.23,0,0)</f>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G58" s="11">
+        <f>F58 + TIME(6.78,0,0)</f>
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H58" s="15">
+        <v>394</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B59" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6">
-        <v>7.23</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
+      <c r="B59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="10">
+        <f>C58 + TIME(7.23,0,0)</f>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E59" s="16">
+        <v>70</v>
+      </c>
+      <c r="F59" s="11">
+        <f>C58 + TIME(7.23,0,0)</f>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G59" s="11">
+        <f>F59 + TIME(0,0,0)</f>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H59" s="15">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B60" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6">
-        <v>4</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+      <c r="B60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="10">
+        <f>C58 + TIME(4,0,0)</f>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E60" s="16">
+        <v>7.14</v>
+      </c>
+      <c r="F60" s="11">
+        <f>C58 + TIME(4,0,0)</f>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G60" s="11">
+        <f>F60 + TIME(0,0,0)</f>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H60" s="15">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B61" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
+      <c r="B61" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="10" t="e">
+        <f>C58 + TIME(nan,0,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E61" s="16">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11" t="e">
+        <f>C58 + TIME(nan,0,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G61" s="11" t="e">
+        <f>F61 + TIME(nan,0,0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H61" s="15">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B62" s="7"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B63" s="7"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="38">
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="F48:I48"/>
@@ -1815,26 +2062,26 @@
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J7:M7"/>
     <mergeCell ref="C3:I4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="H11:H13"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E11:E13"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;7 &amp;K737373#Internal Use - Confidential_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K737373Internal Use - Confidential</oddFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;7&amp;K737373Internal Use - Confidential</oddFooter>
   </headerFooter>
 </worksheet>
 </file>